--- a/low-flow-index/dados-saida/fazendinha.xlsx
+++ b/low-flow-index/dados-saida/fazendinha.xlsx
@@ -388,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,33 +410,118 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>20695</v>
+        <v>20131</v>
       </c>
       <c r="C2" s="2">
-        <v>20722</v>
+        <v>20140</v>
       </c>
       <c r="D2">
-        <v>0.6119999999999999</v>
+        <v>0.7744000000000005</v>
       </c>
       <c r="E2" s="3">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>21034</v>
+        <v>20790</v>
       </c>
       <c r="C3" s="2">
-        <v>44242</v>
+        <v>20795</v>
+      </c>
+      <c r="D3">
+        <v>0.4250000000000003</v>
       </c>
       <c r="E3" s="3">
-        <v>23209</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>21614</v>
+      </c>
+      <c r="C4" s="2">
+        <v>21627</v>
+      </c>
+      <c r="D4">
+        <v>1.030800000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21752</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21763</v>
+      </c>
+      <c r="D5">
+        <v>0.4157000000000003</v>
+      </c>
+      <c r="E5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>21822</v>
+      </c>
+      <c r="C6" s="2">
+        <v>21886</v>
+      </c>
+      <c r="D6">
+        <v>5.0179</v>
+      </c>
+      <c r="E6" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>21915</v>
+      </c>
+      <c r="C7" s="2">
+        <v>21934</v>
+      </c>
+      <c r="D7">
+        <v>1.2097</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>22191</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44257</v>
+      </c>
+      <c r="E8" s="3">
+        <v>22067</v>
       </c>
     </row>
   </sheetData>
